--- a/gmailframeworknotthere/Resources/SeleniumPracticeExcel.xlsx
+++ b/gmailframeworknotthere/Resources/SeleniumPracticeExcel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhara\Desktop\Selenium Training\Training screenshots\Selenium\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhara\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B3A1F5-014B-4E35-A1FF-FD6E36DCB720}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4723B76C-F755-4311-934D-0E416DB4461D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22728" yWindow="2280" windowWidth="17280" windowHeight="9024" xr2:uid="{B214BEFF-E05F-4298-B0DA-4F2A77491013}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="18000" windowHeight="9300" xr2:uid="{B214BEFF-E05F-4298-B0DA-4F2A77491013}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
     <t>Send email To:</t>
   </si>
   <si>
-    <t>lalithasai28@gmail.com</t>
+    <t>bharattejprogrammer@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -435,7 +435,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
